--- a/acervo separado/Acervo_Bandeira.xlsx
+++ b/acervo separado/Acervo_Bandeira.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB8B294-5B12-4C62-BCAA-A47C8B1E637F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D6E6BA-FED3-447D-A94B-0138DD0E0E91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$3</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +114,6 @@
     <t>Bandeira da Escola Nacional de Belas Artes</t>
   </si>
   <si>
-    <t>Seda e fio de prata</t>
-  </si>
-  <si>
     <t>130,0 x 200,0 cm</t>
   </si>
   <si>
@@ -138,6 +142,9 @@
   </si>
   <si>
     <t>200,0cm</t>
+  </si>
+  <si>
+    <t>mattec_276</t>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -608,16 +615,16 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
       <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
         <v>34</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -637,13 +644,13 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -672,10 +679,10 @@
         <v>200,0cm</v>
       </c>
       <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -683,7 +690,7 @@
         <v>3695</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -692,16 +699,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -722,18 +729,18 @@
         <v>20</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T7" si="0">IFERROR(LEFT(K3,SEARCH("x",K3)-1),"")&amp;"cm"</f>
+        <f t="shared" ref="T3" si="0">IFERROR(LEFT(K3,SEARCH("x",K3)-1),"")&amp;"cm"</f>
         <v>130,0 cm</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U7" si="1">MID(K3,LEN(T3)+1,5)&amp;"cm"</f>
+        <f t="shared" ref="U3" si="1">MID(K3,LEN(T3)+1,5)&amp;"cm"</f>
         <v>200,0cm</v>
       </c>
       <c r="V3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
         <v>36</v>
-      </c>
-      <c r="W3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
